--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -812,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="42.689887640449435"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1479087</v>
       </c>
@@ -1326,120 +1845,41 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>39229</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>TCNU8446761</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>2018/2687</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1479431</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK DIRTY</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>39280</v>
@@ -1551,7 +1991,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>39314</v>
@@ -1663,7 +2103,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>39454</v>
@@ -1775,7 +2215,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37518</v>
@@ -1887,7 +2327,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>37520</v>
@@ -1999,7 +2439,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>37613</v>
@@ -2110,120 +2550,41 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>37613</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>TCKU1619407</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="d">
-        <v>2018-09-01T00:00:00</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="0" t="n">
-        <v>1473316</v>
-      </c>
-      <c r="W16" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL CUT 12'X5'</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>37616</v>
@@ -2335,7 +2696,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>37652</v>
@@ -2447,7 +2808,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>37697</v>
@@ -2559,7 +2920,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>37891</v>
@@ -2671,7 +3032,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>38282</v>
@@ -2783,7 +3144,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>38451</v>
@@ -2895,7 +3256,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>39043</v>
@@ -3007,7 +3368,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>39044</v>
@@ -3118,120 +3479,41 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>39044</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>TRIU9159151</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t>2687/2018</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1478950</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>39045</v>
@@ -3342,120 +3624,41 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>39045</v>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>GAOU6026066</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t>2687/2018</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="N27" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="0" t="n">
-        <v>1478951</v>
-      </c>
-      <c r="W27" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y27" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>39046</v>
@@ -3566,120 +3769,41 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>39046</v>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>CAXU9894537</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t>2687/2018</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="N29" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
       <c r="O29" s="0"/>
-      <c r="P29" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="0" t="n">
-        <v>1478952</v>
-      </c>
-      <c r="W29" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y29" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>39047</v>
@@ -3791,7 +3915,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>39048</v>
@@ -3902,120 +4026,41 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>39048</v>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>TCNU9701223</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
-        <is>
-          <t>2687/2018</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M32" s="4" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="N32" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
       <c r="O32" s="0"/>
-      <c r="P32" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="0" t="n">
-        <v>1478954</v>
-      </c>
-      <c r="W32" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>39049</v>
@@ -4127,7 +4172,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>39050</v>
@@ -4238,120 +4283,41 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>39050</v>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>TCNU9633941</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t>2687/2018</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="0" t="n">
-        <v>1478957</v>
-      </c>
-      <c r="W35" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>39051</v>
@@ -4463,7 +4429,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>39052</v>
@@ -4574,120 +4540,41 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>39052</v>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>PMLU9015475</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="K38" s="0" t="inlineStr">
-        <is>
-          <t>2687/2018</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="N38" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
       <c r="O38" s="0"/>
-      <c r="P38" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="0" t="n">
-        <v>1478961</v>
-      </c>
-      <c r="W38" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
-        <is>
           <t>BOTH DOOR LOCKING BAR BENT 03 PCS</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>39053</v>
@@ -4799,7 +4686,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>39193</v>
@@ -4910,232 +4797,74 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>39193</v>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>TTNU9450100</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K41" s="0" t="inlineStr">
-        <is>
-          <t>2018/2687</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
       <c r="O41" s="0"/>
-      <c r="P41" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="0" t="n">
-        <v>1479339</v>
-      </c>
-      <c r="W41" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD NAILS  FITTING VERYES PLS</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>39193</v>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>TTNU9450100</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E42" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G42" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H42" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I42" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J42" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K42" s="0" t="inlineStr">
-        <is>
-          <t>2018/2687</t>
-        </is>
-      </c>
-      <c r="L42" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M42" s="4" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="N42" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="0"/>
       <c r="O42" s="0"/>
-      <c r="P42" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="0" t="n">
-        <v>1479339</v>
-      </c>
-      <c r="W42" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V42" s="0"/>
+      <c r="W42" s="0"/>
       <c r="X42" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y42" s="0" t="inlineStr">
-        <is>
           <t>BOTH DOOR PANEL RUSTED &amp;  CORROSION</t>
         </is>
       </c>
-      <c r="Z42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y42" s="0"/>
+      <c r="Z42" s="0"/>
+      <c r="AA42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>39202</v>
@@ -5246,120 +4975,41 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>39202</v>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>TCNU8602870</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K44" s="0" t="inlineStr">
-        <is>
-          <t>2018/2687</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M44" s="4" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
       <c r="O44" s="0"/>
-      <c r="P44" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="0" t="n">
-        <v>1479372</v>
-      </c>
-      <c r="W44" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD NAILS FITTING 04 PES</t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>39296</v>
@@ -5471,7 +5121,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>39355</v>
@@ -5583,7 +5233,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>39579</v>
@@ -5695,7 +5345,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>39790</v>

--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="241.78988764044945" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="42.689887640449435"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1845,37 +1845,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK DIRTY</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -2550,37 +2529,16 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CUT 12'X5'</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CUT 12'X5'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -3479,37 +3437,16 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -3624,37 +3561,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BANT 01 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3769,37 +3685,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -4026,37 +3921,16 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
-        </is>
-      </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BANT 01 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -4283,37 +4157,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BANT 01 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -4540,37 +4393,16 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR LOCKING BAR BENT 03 PCS</t>
-        </is>
-      </c>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR LOCKING BAR BENT 03 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -4797,70 +4629,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS  FITTING VERYES PLS</t>
-        </is>
-      </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS  FITTING VERYES PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="0"/>
-      <c r="O42" s="0"/>
-      <c r="P42" s="0"/>
-      <c r="Q42" s="0"/>
-      <c r="R42" s="0"/>
-      <c r="S42" s="0"/>
-      <c r="T42" s="0"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="0"/>
-      <c r="W42" s="0"/>
-      <c r="X42" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR PANEL RUSTED &amp;  CORROSION</t>
-        </is>
-      </c>
-      <c r="Y42" s="0"/>
-      <c r="Z42" s="0"/>
-      <c r="AA42" s="0"/>
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL RUSTED &amp;  CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
@@ -4975,37 +4765,16 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="0"/>
-      <c r="O44" s="0"/>
-      <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-      <c r="R44" s="0"/>
-      <c r="S44" s="0"/>
-      <c r="T44" s="0"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTING 04 PES</t>
-        </is>
-      </c>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 04 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">

--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="241.78988764044945" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1850,9 +1850,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK DIRTY", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK DIRTY</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2534,9 +2580,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CUT 12'X5'", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CUT 12'X5'</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3442,9 +3534,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3566,9 +3704,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BANT 01 PES", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3690,9 +3874,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3926,9 +4156,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BANT 01 PES", "", "", ""]</t>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4162,9 +4438,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BANT 01 PES", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKING BAR BANT 01 PES</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4398,9 +4720,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR LOCKING BAR BENT 03 PCS", "", "", ""]</t>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y38" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR LOCKING BAR BENT 03 PCS</t>
+        </is>
+      </c>
+      <c r="Z38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4634,9 +5002,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS  FITTING VERYES PLS", "", "", ""]</t>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS  FITTING VERYES PLS</t>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4646,9 +5060,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL RUSTED &amp;  CORROSION", "", "", ""]</t>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="0"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="0"/>
+      <c r="W42" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X42" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y42" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR PANEL RUSTED &amp;  CORROSION</t>
+        </is>
+      </c>
+      <c r="Z42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB42" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4770,9 +5230,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 04 PES", "", "", ""]</t>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X44" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y44" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 04 PES</t>
+        </is>
+      </c>
+      <c r="Z44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB44" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_56_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:32</t>
+          <t>Total number of containers:32</t>
         </is>
       </c>
     </row>
